--- a/quantitative/quant_tool.xlsx
+++ b/quantitative/quant_tool.xlsx
@@ -4,18 +4,50 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>type of scale</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>number of bins</t>
+  </si>
+  <si>
+    <t>bins</t>
+  </si>
+  <si>
+    <t>Values (low)</t>
+  </si>
+  <si>
+    <t>scales</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +146,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +181,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +363,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>IF(F$8&lt;$B$3,F$8+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:Y8" si="0">IF(G$8&lt;$B$3,G$8+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f>$B$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="choose a linear or a log scale" sqref="B4">
+      <formula1>$A$20:$A$21</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/quantitative/quant_tool.xlsx
+++ b/quantitative/quant_tool.xlsx
@@ -9,7 +9,11 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcCompleted="0"/>
+  <definedNames>
+    <definedName name="midpoints">OFFSET(Feuil1!$F$10,0,0,1,Feuil1!$B$3)</definedName>
+    <definedName name="probabilités">OFFSET(Feuil1!$F$11,0,0,1,Feuil1!$B$3)</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,18 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>min</t>
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>type of scale</t>
-  </si>
-  <si>
-    <t>linear</t>
   </si>
   <si>
     <t>number of bins</t>
@@ -39,13 +37,19 @@
     <t>bins</t>
   </si>
   <si>
-    <t>Values (low)</t>
+    <t>Midpoint</t>
   </si>
   <si>
-    <t>scales</t>
+    <t>Values (left)</t>
   </si>
   <si>
-    <t>log</t>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>Remaining "points" to distribute</t>
+  </si>
+  <si>
+    <t>cumulative</t>
   </si>
 </sst>
 </file>
@@ -81,13 +85,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,6 +149,998 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>[0]!midpoints</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[0]!probabilités</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-242A-47AE-9A80-CFCD8410A648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="801206688"/>
+        <c:axId val="801213904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="801206688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="801213904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="801213904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="801206688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,9 +1417,12 @@
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -392,136 +1438,464 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f ca="1">RAND()*0+1</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f ca="1">IF(F$8&lt;$B$3,F$8+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:Y8" ca="1" si="0">IF(G$8&lt;$B$3,G$8+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f>IF(F$8&lt;$B$3,F$8+1,"")</f>
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:Y8" si="0">IF(G$8&lt;$B$3,G$8+1,"")</f>
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f>$B$1</f>
         <v>0</v>
       </c>
+      <c r="G9" s="2">
+        <f ca="1">IF(F8="","",F9+$B$2/$B$3)</f>
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9:Z9" ca="1" si="1">IF(G8="","",G9+$B$2/$B$3)</f>
+        <v>40</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="U9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="V9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="W9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="X9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Y9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <f ca="1">IF(G9="","",(G9+F9)/2)</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10:Z10" ca="1" si="2">IF(H9="","",(H9+G9)/2)</f>
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y10" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3">
+        <v>15</v>
+      </c>
+      <c r="N11" s="3">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f>F11</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f ca="1">IF(G8="","",F12+G11)</f>
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:Y12" ca="1" si="3">IF(H8="","",G12+H11)</f>
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3</v>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f ca="1">100-SUMIF(F8:Y8,"&gt;0",F11:Y11)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="choose a linear or a log scale" sqref="B4">
-      <formula1>$A$20:$A$21</formula1>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:Y11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(F$8="",1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(F$8="",0,1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="max number" prompt="max = 20" sqref="B3">
+      <formula1>20</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>